--- a/ЛетДоФинНезависимости.xlsx
+++ b/ЛетДоФинНезависимости.xlsx
@@ -43,7 +43,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,13 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -129,6 +123,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -190,6 +190,22 @@
               <a:rPr lang="ru-RU" sz="1600"/>
               <a:t>Сколько нужно лет до финансовой независимости</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>:</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1600"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1050"/>
+              <a:t>через</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1050" baseline="0"/>
+              <a:t> сколько лет вы начнете получать доход от инвестиций равный текущему при выбранной средней доходности и норме сбережений </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1050"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1855,9 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1871,30 +1885,30 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3">
         <v>0.05</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5">
         <v>0.05</v>
       </c>
       <c r="C4" s="1">
@@ -1911,8 +1925,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5">
         <f>B4+5%</f>
         <v>0.1</v>
       </c>
@@ -1930,8 +1944,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5">
         <f t="shared" ref="B6:B21" si="2">B5+5%</f>
         <v>0.15000000000000002</v>
       </c>
@@ -1949,8 +1963,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
@@ -1968,8 +1982,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -1987,8 +2001,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
@@ -2006,8 +2020,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
@@ -2025,8 +2039,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5">
         <f t="shared" si="2"/>
         <v>0.39999999999999997</v>
       </c>
@@ -2044,8 +2058,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5">
         <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
@@ -2063,8 +2077,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5">
         <f t="shared" si="2"/>
         <v>0.49999999999999994</v>
       </c>
@@ -2082,8 +2096,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5">
         <f t="shared" si="2"/>
         <v>0.54999999999999993</v>
       </c>
@@ -2101,8 +2115,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
@@ -2120,8 +2134,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5">
         <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
@@ -2139,8 +2153,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5">
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
@@ -2158,8 +2172,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5">
         <f t="shared" si="2"/>
         <v>0.75000000000000011</v>
       </c>
@@ -2177,8 +2191,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5">
         <f t="shared" si="2"/>
         <v>0.80000000000000016</v>
       </c>
@@ -2196,8 +2210,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5">
         <f t="shared" si="2"/>
         <v>0.8500000000000002</v>
       </c>
@@ -2215,8 +2229,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5">
         <f t="shared" si="2"/>
         <v>0.90000000000000024</v>
       </c>
@@ -2239,15 +2253,15 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="6" t="str">
         <f>C3*100&amp;"% годовой доход"</f>
         <v>5% годовой доход</v>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="6" t="str">
         <f>D3*100&amp;"% годовой доход"</f>
         <v>10% годовой доход</v>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E25" s="6" t="str">
         <f>E3*100&amp;"% годовой доход"</f>
         <v>15% годовой доход</v>
       </c>
